--- a/public/templates/bulk-tenant-import-template.xlsx
+++ b/public/templates/bulk-tenant-import-template.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\ourproperty\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>First Name</t>
   </si>
@@ -30,27 +32,12 @@
   <si>
     <t>Phone Number</t>
   </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Local Government</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Tenant/Occupant Type</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -78,7 +65,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -97,6 +90,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -105,10 +106,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -384,30 +385,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="E1">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28516" customWidth="1"/>
-    <col min="2" max="2" width="20.71094" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.42578" customWidth="1"/>
-    <col min="5" max="5" width="14.85547" customWidth="1"/>
-    <col min="6" max="6" width="18.71094" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85547" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.57031" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -420,22 +424,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4"/>
+      <c r="H4"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>